--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1297,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1390,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1458,10 +1470,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1505,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1551,28 +1563,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1718,10 +1730,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1765,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1811,28 +1823,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2065,10 +2077,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2112,28 +2124,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2158,28 +2170,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2267,10 +2279,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2314,28 +2326,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2360,28 +2372,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2568,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2603,28 +2615,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2661,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2903,10 +2915,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2950,28 +2962,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2996,28 +3008,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3105,10 +3117,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3152,28 +3164,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3198,28 +3210,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3307,10 +3319,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3354,28 +3366,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3400,28 +3412,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3683,10 +3695,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3730,28 +3742,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3776,28 +3788,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4175,10 +4187,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4222,28 +4234,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4268,28 +4280,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4360,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4395,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4453,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4579,10 +4591,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4626,28 +4638,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4672,28 +4684,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4839,10 +4851,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4886,28 +4898,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4932,28 +4944,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5012,10 +5024,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5059,28 +5071,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5105,28 +5117,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5243,10 +5255,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5290,28 +5302,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5336,28 +5348,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5503,10 +5515,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5550,28 +5562,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5596,28 +5608,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5763,10 +5775,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5810,28 +5822,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5856,28 +5868,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6081,10 +6093,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6128,28 +6140,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6174,28 +6186,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6254,10 +6266,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6301,28 +6313,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6347,28 +6359,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6456,10 +6468,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6503,28 +6515,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6549,28 +6561,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6629,10 +6641,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6676,28 +6688,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6722,28 +6734,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6860,10 +6872,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6907,28 +6919,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6953,28 +6965,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7091,10 +7103,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
